--- a/va_facility_data_2025-02-20/Marshfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marshfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Marshfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marshfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9d48fe14052e42f8acb4838d8837c695"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd4f0f8149dd24728b883fe35bcbf2293"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdcdea0bc6d834e758663fde011df5a46"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3d6247b037c4430e9c20195defaace60"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R436c641390814f92a2cb4b7328cc2551"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra7caee9243b64398bb7df41880a5af7b"/>
   </x:sheets>
 </x:workbook>
 </file>
